--- a/biology/Médecine/Lungtok_Choktsang/Lungtok_Choktsang.xlsx
+++ b/biology/Médecine/Lungtok_Choktsang/Lungtok_Choktsang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lungtok Choktsang  (tibétain : མཆོག་ཚང་ ལུང་རྟོགས།, Wylie : mchog tshang lung rtogs) né le 14 avril 1966, est un médecin et un calligraphe tibétain résidant en France depuis 1998. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a rejoint Shitsang Gompa où il étudie la philosophie bouddhiste, la dialectique, l'astrologie et la calligraphie.
 En 1985, il entre à l'Institut Médical du Tibet où il étudie la médecine tibétaine traditionnelle sous la direction du docteur Tenkho. Il a également eu pour professeur Troru Tsénam  (tibétain : ཁྲོ་རུ་ཚེ་རྣམ, Wylie : khro ru tshe rnam, 1928-2004). 
-Il est l’un des fondateurs de l'hôpital de Shitsang Gompa, spécialisé en médecine tibétaine dans l'Amdo[1]. Il est notamment chargé de la composition des médicaments de l'hôpital.  
-Il se rend en Inde en 1991, où il étudie l'hindi et l’anglais. Il arrive en France en 1998, il a été enseignant aux Langues Orientales de Paris et se consacre aujourd'hui à la pratique du massage tibétain[2], une composante importante de la médecine tibétaine. Il continue également à réaliser des œuvres calligraphiques et à enseigner la langue tibétaine auprès d'élèves en présentiel ou à distance ou encore d'associations pour faire perdurer la culture tibétaine.
+Il est l’un des fondateurs de l'hôpital de Shitsang Gompa, spécialisé en médecine tibétaine dans l'Amdo. Il est notamment chargé de la composition des médicaments de l'hôpital.  
+Il se rend en Inde en 1991, où il étudie l'hindi et l’anglais. Il arrive en France en 1998, il a été enseignant aux Langues Orientales de Paris et se consacre aujourd'hui à la pratique du massage tibétain, une composante importante de la médecine tibétaine. Il continue également à réaliser des œuvres calligraphiques et à enseigner la langue tibétaine auprès d'élèves en présentiel ou à distance ou encore d'associations pour faire perdurer la culture tibétaine.
 </t>
         </is>
       </c>
